--- a/sortexcel.xlsx
+++ b/sortexcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId3"/>
@@ -4153,8 +4153,8 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5290,9 +5290,9 @@
   <dimension ref="A1:P499"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G160" activeCellId="0" sqref="G160"/>
+      <selection pane="bottomLeft" activeCell="L92" activeCellId="0" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12336,22 +12336,22 @@
       <c r="B196" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="D196" s="0" t="n">
+      <c r="D196" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E196" s="0" t="n">
+      <c r="E196" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="F196" s="0" t="n">
+      <c r="F196" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="G196" s="0" t="n">
+      <c r="G196" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="H196" s="0" t="n">
+      <c r="H196" s="1" t="n">
         <v>120</v>
       </c>
       <c r="I196" s="9" t="s">
@@ -12372,22 +12372,22 @@
       <c r="B197" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="D197" s="0" t="n">
+      <c r="D197" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="E197" s="0" t="n">
+      <c r="E197" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="F197" s="0" t="n">
+      <c r="F197" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="G197" s="0" t="n">
+      <c r="G197" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="H197" s="0" t="n">
+      <c r="H197" s="1" t="n">
         <v>75</v>
       </c>
       <c r="I197" s="9" t="s">
@@ -12408,22 +12408,22 @@
       <c r="B198" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="D198" s="0" t="n">
+      <c r="D198" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="E198" s="0" t="n">
+      <c r="E198" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="F198" s="0" t="n">
+      <c r="F198" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G198" s="0" t="n">
+      <c r="G198" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="H198" s="0" t="n">
+      <c r="H198" s="1" t="n">
         <v>95</v>
       </c>
       <c r="I198" s="9" t="s">
@@ -12444,22 +12444,22 @@
       <c r="B199" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="D199" s="0" t="n">
+      <c r="D199" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="E199" s="0" t="n">
+      <c r="E199" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="F199" s="0" t="n">
+      <c r="F199" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="G199" s="0" t="n">
+      <c r="G199" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="H199" s="0" t="n">
+      <c r="H199" s="1" t="n">
         <v>115</v>
       </c>
       <c r="I199" s="9" t="s">
@@ -12480,22 +12480,22 @@
       <c r="B200" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D200" s="0" t="n">
+      <c r="D200" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="E200" s="0" t="n">
+      <c r="E200" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="F200" s="0" t="n">
+      <c r="F200" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="G200" s="0" t="n">
+      <c r="G200" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="H200" s="0" t="n">
+      <c r="H200" s="1" t="n">
         <v>80</v>
       </c>
       <c r="I200" s="9" t="s">
@@ -12516,22 +12516,22 @@
       <c r="B201" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D201" s="0" t="n">
+      <c r="D201" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="E201" s="0" t="n">
+      <c r="E201" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="F201" s="0" t="n">
+      <c r="F201" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G201" s="0" t="n">
+      <c r="G201" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="H201" s="0" t="n">
+      <c r="H201" s="1" t="n">
         <v>80</v>
       </c>
       <c r="I201" s="9" t="s">
@@ -12552,22 +12552,22 @@
       <c r="B202" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="D202" s="0" t="n">
+      <c r="D202" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="E202" s="0" t="n">
+      <c r="E202" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="F202" s="0" t="n">
+      <c r="F202" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="G202" s="0" t="n">
+      <c r="G202" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="H202" s="0" t="n">
+      <c r="H202" s="1" t="n">
         <v>150</v>
       </c>
       <c r="I202" s="9" t="s">
@@ -12588,22 +12588,22 @@
       <c r="B203" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="D203" s="0" t="n">
+      <c r="D203" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="E203" s="0" t="n">
+      <c r="E203" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="F203" s="0" t="n">
+      <c r="F203" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G203" s="0" t="n">
+      <c r="G203" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H203" s="0" t="n">
+      <c r="H203" s="1" t="n">
         <v>94</v>
       </c>
       <c r="I203" s="9" t="s">
@@ -12624,22 +12624,22 @@
       <c r="B204" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D204" s="0" t="n">
+      <c r="D204" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E204" s="0" t="n">
+      <c r="E204" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F204" s="0" t="n">
+      <c r="F204" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G204" s="0" t="n">
+      <c r="G204" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H204" s="0" t="n">
+      <c r="H204" s="1" t="n">
         <v>100</v>
       </c>
       <c r="I204" s="9" t="s">
@@ -12660,22 +12660,22 @@
       <c r="B205" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="D205" s="0" t="n">
+      <c r="D205" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E205" s="0" t="n">
+      <c r="E205" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="F205" s="0" t="n">
+      <c r="F205" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="G205" s="0" t="n">
+      <c r="G205" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="H205" s="0" t="n">
+      <c r="H205" s="1" t="n">
         <v>48</v>
       </c>
       <c r="I205" s="9" t="s">
@@ -14469,9 +14469,9 @@
   <dimension ref="A1:P499"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K205" activeCellId="0" sqref="K205"/>
+      <selection pane="bottomLeft" activeCell="J212" activeCellId="0" sqref="J212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23388,22 +23388,22 @@
       <c r="B248" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C248" s="0" t="n">
+      <c r="C248" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="D248" s="0" t="n">
+      <c r="D248" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E248" s="0" t="n">
+      <c r="E248" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="F248" s="0" t="n">
+      <c r="F248" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="G248" s="0" t="n">
+      <c r="G248" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="H248" s="0" t="n">
+      <c r="H248" s="1" t="n">
         <v>130</v>
       </c>
       <c r="I248" s="9" t="s">
@@ -23424,22 +23424,22 @@
       <c r="B249" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C249" s="0" t="n">
+      <c r="C249" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="D249" s="0" t="n">
+      <c r="D249" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="E249" s="0" t="n">
+      <c r="E249" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="F249" s="0" t="n">
+      <c r="F249" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="G249" s="0" t="n">
+      <c r="G249" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="H249" s="0" t="n">
+      <c r="H249" s="1" t="n">
         <v>117</v>
       </c>
       <c r="I249" s="9" t="s">
@@ -23463,22 +23463,22 @@
       <c r="B250" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C250" s="0" t="n">
+      <c r="C250" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="D250" s="0" t="n">
+      <c r="D250" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E250" s="0" t="n">
+      <c r="E250" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="F250" s="0" t="n">
+      <c r="F250" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G250" s="0" t="n">
+      <c r="G250" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="H250" s="0" t="n">
+      <c r="H250" s="1" t="n">
         <v>80</v>
       </c>
       <c r="I250" s="9" t="s">
@@ -23496,22 +23496,22 @@
       <c r="B251" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C251" s="0" t="n">
+      <c r="C251" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="D251" s="0" t="n">
+      <c r="D251" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E251" s="0" t="n">
+      <c r="E251" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="F251" s="0" t="n">
+      <c r="F251" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G251" s="0" t="n">
+      <c r="G251" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="H251" s="0" t="n">
+      <c r="H251" s="1" t="n">
         <v>80</v>
       </c>
       <c r="I251" s="9" t="s">
@@ -23529,22 +23529,22 @@
       <c r="B252" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C252" s="0" t="n">
+      <c r="C252" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="D252" s="0" t="n">
+      <c r="D252" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E252" s="0" t="n">
+      <c r="E252" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="F252" s="0" t="n">
+      <c r="F252" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G252" s="0" t="n">
+      <c r="G252" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="H252" s="0" t="n">
+      <c r="H252" s="1" t="n">
         <v>80</v>
       </c>
       <c r="I252" s="9" t="s">
@@ -23562,22 +23562,22 @@
       <c r="B253" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C253" s="0" t="n">
+      <c r="C253" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="D253" s="0" t="n">
+      <c r="D253" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="E253" s="0" t="n">
+      <c r="E253" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="F253" s="0" t="n">
+      <c r="F253" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="G253" s="0" t="n">
+      <c r="G253" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="H253" s="0" t="n">
+      <c r="H253" s="1" t="n">
         <v>80</v>
       </c>
       <c r="I253" s="9" t="s">
@@ -23595,22 +23595,22 @@
       <c r="B254" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C254" s="0" t="n">
+      <c r="C254" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D254" s="0" t="n">
+      <c r="D254" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="0" t="n">
+      <c r="E254" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="F254" s="0" t="n">
+      <c r="F254" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G254" s="0" t="n">
+      <c r="G254" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H254" s="0" t="n">
+      <c r="H254" s="1" t="n">
         <v>25</v>
       </c>
       <c r="I254" s="9" t="s">
@@ -23631,22 +23631,22 @@
       <c r="B255" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C255" s="0" t="n">
+      <c r="C255" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="D255" s="0" t="n">
+      <c r="D255" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="E255" s="0" t="n">
+      <c r="E255" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="F255" s="0" t="n">
+      <c r="F255" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="G255" s="0" t="n">
+      <c r="G255" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="H255" s="0" t="n">
+      <c r="H255" s="1" t="n">
         <v>130</v>
       </c>
       <c r="I255" s="9" t="s">
@@ -23670,22 +23670,22 @@
       <c r="B256" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C256" s="0" t="n">
+      <c r="C256" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="D256" s="0" t="n">
+      <c r="D256" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="E256" s="0" t="n">
+      <c r="E256" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="F256" s="0" t="n">
+      <c r="F256" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G256" s="0" t="n">
+      <c r="G256" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="H256" s="0" t="n">
+      <c r="H256" s="1" t="n">
         <v>90</v>
       </c>
       <c r="I256" s="9" t="s">
@@ -23709,22 +23709,22 @@
       <c r="B257" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C257" s="0" t="n">
+      <c r="C257" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="D257" s="0" t="n">
+      <c r="D257" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="E257" s="0" t="n">
+      <c r="E257" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="F257" s="0" t="n">
+      <c r="F257" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="G257" s="0" t="n">
+      <c r="G257" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="H257" s="0" t="n">
+      <c r="H257" s="1" t="n">
         <v>128</v>
       </c>
       <c r="I257" s="9" t="s">
@@ -25205,10 +25205,10 @@
   </sheetPr>
   <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B229" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F247" activeCellId="0" sqref="F247"/>
+      <selection pane="bottomLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -76226,14 +76226,6 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0"/>
-      <c r="L6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0"/>
-      <c r="L7" s="0"/>
-    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>536</v>

--- a/sortexcel.xlsx
+++ b/sortexcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId3"/>
@@ -4153,8 +4153,8 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5289,10 +5289,10 @@
   </sheetPr>
   <dimension ref="A1:P499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L92" activeCellId="0" sqref="L92"/>
+      <selection pane="bottomLeft" activeCell="L172" activeCellId="0" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14469,9 +14469,9 @@
   <dimension ref="A1:P499"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J212" activeCellId="0" sqref="J212"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25205,10 +25205,10 @@
   </sheetPr>
   <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38616,8 +38616,8 @@
   </sheetPr>
   <dimension ref="A1:P1082"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A896" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A907" activeCellId="0" sqref="A907"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/sortexcel.xlsx
+++ b/sortexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONTROL\Documents\study\RubyDump\project-untamed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304030E7-6EE9-4AAD-8D30-5C91A290B15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E802156-055E-4061-8944-D2DA2B35B006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="1398">
   <si>
     <t>Megas Calc</t>
   </si>
@@ -4224,17 +4224,27 @@
   </si>
   <si>
     <t xml:space="preserve"> CALYREX (Form 1)</t>
+  </si>
+  <si>
+    <t>1=nerf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4250,7 +4260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4258,11 +4268,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4279,8 +4305,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4408,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L17" sqref="L16:M17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5528,6 +5562,10 @@
         <f>SUM(A39:F39)</f>
         <v>470</v>
       </c>
+      <c r="I39" s="11">
+        <f>1*(4/3)</f>
+        <v>1.3333333333333333</v>
+      </c>
       <c r="K39" t="s">
         <v>35</v>
       </c>
@@ -5568,6 +5606,10 @@
       <c r="G40" t="s">
         <v>8</v>
       </c>
+      <c r="I40" s="12">
+        <f>1*(3/2)</f>
+        <v>1.5</v>
+      </c>
       <c r="K40" t="s">
         <v>36</v>
       </c>
@@ -5585,23 +5627,31 @@
         <v>65</v>
       </c>
       <c r="B41">
-        <v>151</v>
+        <f>ROUNDDOWN(B39*IF($I$42=0,$I$40,$I$39),0)</f>
+        <v>133</v>
       </c>
       <c r="C41">
-        <v>151</v>
+        <f t="shared" ref="C41:F41" si="8">ROUNDDOWN(C39*IF($I$42=0,$I$40,$I$39),0)</f>
+        <v>133</v>
       </c>
       <c r="D41">
-        <v>106</v>
+        <f t="shared" si="8"/>
+        <v>93</v>
       </c>
       <c r="E41">
-        <v>106</v>
+        <f t="shared" si="8"/>
+        <v>93</v>
       </c>
       <c r="F41">
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>86</v>
       </c>
       <c r="G41">
         <f>SUM(A41:F41)</f>
-        <v>678</v>
+        <v>603</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>1397</v>
       </c>
       <c r="K41" t="s">
         <v>40</v>
@@ -5617,31 +5667,34 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f t="shared" ref="A42:F42" si="8">"max " &amp; A$2</f>
+        <f t="shared" ref="A42:F42" si="9">"max " &amp; A$2</f>
         <v>max hp</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>max atk</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>max def</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>max speed</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>max spatk</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>max spdef</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>41</v>
@@ -5662,23 +5715,23 @@
       </c>
       <c r="B43" s="3">
         <f>ROUNDDOWN(((((((B41*2))*$I$2/100)+5)*110/100)),0)</f>
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C43" s="3">
         <f>ROUNDDOWN(((((((C41*2))*$I$2/100)+5)*110/100)),0)</f>
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="D43" s="3">
         <f>ROUNDDOWN(((((((D41*2))*$I$2/100)+5)*110/100)),0)</f>
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="E43" s="3">
         <f>ROUNDDOWN(((((((E41*2))*$I$2/100)+5)*110/100)),0)</f>
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="F43" s="3">
         <f>ROUNDDOWN(((((((F41*2))*$I$2/100)+5)*110/100)),0)</f>
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -5710,7 +5763,7 @@
         <v>25</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" ref="M45:M63" si="9">(L45/$O$45)</f>
+        <f t="shared" ref="M45:M63" si="10">(L45/$O$45)</f>
         <v>0.12690355329949238</v>
       </c>
       <c r="O45">
@@ -5727,7 +5780,7 @@
         <v>24</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.12182741116751269</v>
       </c>
       <c r="Q46">
@@ -5750,7 +5803,7 @@
         <v>22</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1116751269035533</v>
       </c>
       <c r="Q47">
@@ -5773,7 +5826,7 @@
         <v>21</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1065989847715736</v>
       </c>
       <c r="Q48">
@@ -5796,7 +5849,7 @@
         <v>21</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1065989847715736</v>
       </c>
       <c r="Q49">
@@ -5821,7 +5874,7 @@
         <v>21</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1065989847715736</v>
       </c>
       <c r="Q50">
@@ -5846,7 +5899,7 @@
         <v>21</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1065989847715736</v>
       </c>
       <c r="Q51">
@@ -5871,7 +5924,7 @@
         <v>21</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1065989847715736</v>
       </c>
       <c r="Q52">
@@ -5896,7 +5949,7 @@
         <v>17</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6294416243654817E-2</v>
       </c>
       <c r="Q53">
@@ -5921,7 +5974,7 @@
         <v>17</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6294416243654817E-2</v>
       </c>
       <c r="Q54">
@@ -5946,7 +5999,7 @@
         <v>17</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6294416243654817E-2</v>
       </c>
       <c r="Q55">
@@ -5971,7 +6024,7 @@
         <v>15</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6142131979695438E-2</v>
       </c>
       <c r="Q56">
@@ -5996,7 +6049,7 @@
         <v>15</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6142131979695438E-2</v>
       </c>
       <c r="Q57">
@@ -6021,7 +6074,7 @@
         <v>14</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.1065989847715741E-2</v>
       </c>
     </row>
@@ -6034,7 +6087,7 @@
         <v>14</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.1065989847715741E-2</v>
       </c>
     </row>
@@ -6047,7 +6100,7 @@
         <v>13</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5989847715736044E-2</v>
       </c>
     </row>
@@ -6060,7 +6113,7 @@
         <v>13</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5989847715736044E-2</v>
       </c>
     </row>
@@ -6073,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5837563451776651E-2</v>
       </c>
     </row>
@@ -6086,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15439,7 +15492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="G238" sqref="G238"/>
